--- a/documents/Published/Thermometer/ThermometerByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Thermometer/ThermometerByMAQSoftwareChecklist.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D32280-7DEA-4970-A65A-44AD2678D05E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,71 +362,71 @@
     <t>Update Value,Fill and Border color of range 4</t>
   </si>
   <si>
+    <t>Update display unit and decimal value for actual value, target value and ticks value</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Update display unit to 'Thousand'
+3 Update decimal value  to '1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Text will be formatted like '50K'
+2. Text will be formatted like '50.0K'</t>
+  </si>
+  <si>
+    <t>Update display unit and decimal value for legend value</t>
+  </si>
+  <si>
     <t>1. Go to formatting pane
 2. Go to Legend
-3. Update Category 25
+3. Update Range 1 to  '50'
 4. Update Fill to 'Blue'
 5. Update Border to 'Red'</t>
   </si>
   <si>
+    <t>1. Range values should be updated from 0-50
+2. Range 1 fill color should be updated to 'Blue'
+3.Range 1 border color should be updated to 'Red'</t>
+  </si>
+  <si>
     <t>1. Go to formatting pane
 2. Go to Legend
-3. Update Category 50
+3. Update 'Range 2' to '100'
 4. Update Fill to 'Green'
 5. Update Border to 'Yellow'</t>
   </si>
   <si>
-    <t>1. Go to formatting pane
-2. Go to Legend
-3. Update Category 75
-4. Update Fill to 'Blue'
-5. Update Border to 'Red'</t>
-  </si>
-  <si>
-    <t>1. Go to formatting pane
-2. Go to Legend
-3. Update Category data MAX
-4. Update Fill to 'Green'
-5. Update Border to 'Yellow'</t>
-  </si>
-  <si>
-    <t>1. Range values should be updated from 0-25
-2. Range 1 fill color should be updated to 'Blue'
-3.Range 1 border color should be updated to 'Red'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Range 2 values should be updated from 25-50
+    <t xml:space="preserve">1. Range 2 values should be updated from 50-100
 2. Range 2 fill color should be updated to 'Green'
 3. Range 2 border color should be updated to 'Yellow'
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Range 3 values should be updated from 50-75
+    <t>1. Go to formatting pane
+2. Go to Legend
+3. Update 'Range 3' to '150'
+4. Update Fill to 'Blue'
+5. Update Border to 'Red'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Range 3 values should be updated from 100-150
 2. Range 3 fill color should be updated to 'Blue'
 3. Range 3 border color should be updated to 'Red'
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Range 4 values should be updated from 75-100
+    <t xml:space="preserve">1. Range 4 values should be updated from 150 - 350 
 2. Range 4 fill color should be updated to 'Green'
 3. Range 4 border color should be updated to 'Yellow'
 </t>
   </si>
   <si>
-    <t>Update display unit and decimal value for actual value, target value and ticks value</t>
-  </si>
-  <si>
     <t>1. Go to formatting pane
-2. Update display unit to 'Thousand'
-3 Update decimal value  to '1'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Text will be formatted like '50K'
-2. Text will be formatted like '50.0K'</t>
-  </si>
-  <si>
-    <t>Update display unit and decimal value for legend value</t>
+2. Go to Legend
+3. Update 'Range 4' to '350' ( Max Value)
+4. Update Fill to 'Green'
+5. Update Border to 'Yellow'</t>
   </si>
 </sst>
 </file>
@@ -573,32 +574,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -615,6 +598,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,14 +1049,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>94</v>
+      <c r="C10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1112,7 +1113,7 @@
       <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="15" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1120,63 +1121,63 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="E20" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C19" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="21"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1376,29 +1377,29 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1412,41 +1413,41 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
